--- a/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -1627,47 +1627,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0. 멘토 피드백 정리
-1. 갤러리 이미지 클릭시 제목 출력 기능구현
-2. 텍스트 미디어쿼리 정비
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>+ 애니메이션 structure 섹션 위치값 연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 갤러리 서브메뉴 미디어 쿼리 
-4. 푸터 전에 각 행성으로 이동 기능 구현
-5. 커서에 이미지 따라다닐 수 있도록 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. json 데이터 수정
 - 데이터 모두 입력 완료
 - 줄바꿈 스트링 입력
 2. 텍스트 애니메이션 미디어쿼리 진행하는 중
 - structure 섹션 애니메이션 기능 연결 완료
 3. 프로젝트 전체일정 양식 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. 멘토 피드백 정리
+1. 행성 위치값 이동 기능 구현
+2. 갤러리 이미지 클릭시 제목 출력 기능구현
+3. 텍스트 미디어쿼리 정비
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>+ 애니메이션 structure 섹션 위치값 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 갤러리 서브메뉴 미디어 쿼리 
+5. 푸터 전에 각 행성으로 이동 기능 구현
+6. 커서에 이미지 따라다닐 수 있도록 구현</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2497,6 +2498,45 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2551,43 +2591,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,15 +2607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2911,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F35"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2933,11 +2934,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -2963,56 +2964,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="76">
         <v>45670</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3087,13 +3088,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="80"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="70"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3178,7 +3179,7 @@
       <c r="E7" s="11">
         <v>45695</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="75" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="22">
@@ -3222,7 +3223,7 @@
       <c r="E8" s="11">
         <v>45695</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>26</v>
@@ -3262,7 +3263,7 @@
       <c r="E9" s="11">
         <v>45695</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3302,7 +3303,7 @@
       <c r="E10" s="11">
         <v>45695</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3342,7 +3343,7 @@
       <c r="E11" s="11">
         <v>45695</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3382,7 +3383,7 @@
       <c r="E12" s="11">
         <v>45695</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3422,7 +3423,7 @@
       <c r="E13" s="11">
         <v>45695</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G39" si="4">IF(E13="","",E13+1-D13)</f>
         <v>26</v>
@@ -3462,7 +3463,7 @@
       <c r="E14" s="11">
         <v>45695</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3500,7 +3501,7 @@
       <c r="E15" s="11">
         <v>45695</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3538,7 +3539,7 @@
       <c r="E16" s="11">
         <v>45688</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="72" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="22">
@@ -3580,7 +3581,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3611,7 +3612,7 @@
       <c r="B18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="66" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="11">
@@ -3620,7 +3621,7 @@
       <c r="E18" s="11">
         <v>45688</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G29" si="5">IF(E18="","",E18+1-D18)</f>
         <v>19</v>
@@ -3651,14 +3652,14 @@
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="11">
         <v>45670</v>
       </c>
       <c r="E19" s="11">
         <v>45688</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3689,14 +3690,14 @@
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="11">
         <v>45670</v>
       </c>
       <c r="E20" s="11">
         <v>45688</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3727,14 +3728,14 @@
       <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45688</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3765,14 +3766,14 @@
       <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45688</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3803,14 +3804,14 @@
       <c r="B23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45688</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3850,7 +3851,7 @@
       <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3890,7 +3891,7 @@
       <c r="E25" s="11">
         <v>45688</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="22">
         <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
         <v>19</v>
@@ -3930,7 +3931,7 @@
       <c r="E26" s="11">
         <v>45688</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="22">
         <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
         <v>19</v>
@@ -3961,12 +3962,12 @@
       <c r="B27" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="66" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -3992,10 +3993,10 @@
       <c r="B28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="60"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -4021,7 +4022,7 @@
       <c r="B29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="69" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="11">
@@ -4030,7 +4031,7 @@
       <c r="E29" s="11">
         <v>45693</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4061,14 +4062,14 @@
       <c r="B30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="11">
         <v>45691</v>
       </c>
       <c r="E30" s="11">
         <v>45693</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4099,14 +4100,14 @@
       <c r="B31" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="11">
         <v>45691</v>
       </c>
       <c r="E31" s="11">
         <v>45693</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4137,14 +4138,14 @@
       <c r="B32" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="11">
         <v>45691</v>
       </c>
       <c r="E32" s="11">
         <v>45693</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4175,14 +4176,14 @@
       <c r="B33" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="11">
         <v>45691</v>
       </c>
       <c r="E33" s="11">
         <v>45693</v>
       </c>
-      <c r="F33" s="60"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4213,14 +4214,14 @@
       <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="11">
         <v>45691</v>
       </c>
       <c r="E34" s="11">
         <v>45693</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4251,14 +4252,14 @@
       <c r="B35" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="11">
         <v>45691</v>
       </c>
       <c r="E35" s="11">
         <v>45693</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4441,11 +4442,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="F16:F35"/>
@@ -4455,6 +4451,11 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z39">
@@ -4512,9 +4513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N22" sqref="N22"/>
+      <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4537,16 +4538,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4569,126 +4570,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="84" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="88"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="89"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4799,7 +4800,7 @@
         <v>129</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -4866,123 +4867,123 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="84" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="88"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="89"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="89"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5102,123 +5103,123 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="84" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="88"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="89"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5327,7 +5328,7 @@
         <v>128</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
@@ -5373,123 +5374,123 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="84" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="89"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="89"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5602,6 +5603,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5618,83 +5696,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -2498,6 +2498,69 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2528,67 +2591,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2598,15 +2607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2934,11 +2934,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -2964,56 +2964,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="63">
         <v>45670</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3088,13 +3088,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3179,7 +3179,7 @@
       <c r="E7" s="11">
         <v>45695</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="22">
@@ -3223,7 +3223,7 @@
       <c r="E8" s="11">
         <v>45695</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>26</v>
@@ -3263,7 +3263,7 @@
       <c r="E9" s="11">
         <v>45695</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3303,7 +3303,7 @@
       <c r="E10" s="11">
         <v>45695</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3343,7 +3343,7 @@
       <c r="E11" s="11">
         <v>45695</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3383,7 +3383,7 @@
       <c r="E12" s="11">
         <v>45695</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3423,7 +3423,7 @@
       <c r="E13" s="11">
         <v>45695</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G39" si="4">IF(E13="","",E13+1-D13)</f>
         <v>26</v>
@@ -3463,7 +3463,7 @@
       <c r="E14" s="11">
         <v>45695</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3501,7 +3501,7 @@
       <c r="E15" s="11">
         <v>45695</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3539,7 +3539,7 @@
       <c r="E16" s="11">
         <v>45688</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="59" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="22">
@@ -3581,7 +3581,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3612,7 +3612,7 @@
       <c r="B18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="53" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="11">
@@ -3621,7 +3621,7 @@
       <c r="E18" s="11">
         <v>45688</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G29" si="5">IF(E18="","",E18+1-D18)</f>
         <v>19</v>
@@ -3652,14 +3652,14 @@
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="11">
         <v>45670</v>
       </c>
       <c r="E19" s="11">
         <v>45688</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3690,14 +3690,14 @@
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="11">
         <v>45670</v>
       </c>
       <c r="E20" s="11">
         <v>45688</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3728,14 +3728,14 @@
       <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45688</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3766,14 +3766,14 @@
       <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45688</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3804,14 +3804,14 @@
       <c r="B23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45688</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3851,7 +3851,7 @@
       <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3891,7 +3891,7 @@
       <c r="E25" s="11">
         <v>45688</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="22">
         <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
         <v>19</v>
@@ -3931,7 +3931,7 @@
       <c r="E26" s="11">
         <v>45688</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="22">
         <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
         <v>19</v>
@@ -3962,12 +3962,12 @@
       <c r="B27" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="53" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="73"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -3993,10 +3993,10 @@
       <c r="B28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="73"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -4022,7 +4022,7 @@
       <c r="B29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="11">
@@ -4031,7 +4031,7 @@
       <c r="E29" s="11">
         <v>45693</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4062,14 +4062,14 @@
       <c r="B30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="11">
         <v>45691</v>
       </c>
       <c r="E30" s="11">
         <v>45693</v>
       </c>
-      <c r="F30" s="73"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4100,14 +4100,14 @@
       <c r="B31" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="11">
         <v>45691</v>
       </c>
       <c r="E31" s="11">
         <v>45693</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4138,14 +4138,14 @@
       <c r="B32" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="11">
         <v>45691</v>
       </c>
       <c r="E32" s="11">
         <v>45693</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4176,14 +4176,14 @@
       <c r="B33" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="11">
         <v>45691</v>
       </c>
       <c r="E33" s="11">
         <v>45693</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4214,14 +4214,14 @@
       <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="11">
         <v>45691</v>
       </c>
       <c r="E34" s="11">
         <v>45693</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4252,14 +4252,14 @@
       <c r="B35" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="11">
         <v>45691</v>
       </c>
       <c r="E35" s="11">
         <v>45693</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4442,6 +4442,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="F16:F35"/>
@@ -4451,11 +4456,6 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z39">
@@ -4513,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
@@ -4538,16 +4538,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4570,126 +4570,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="C4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="87" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="86"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4867,123 +4867,123 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="87" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="85"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="86"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="86"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5103,123 +5103,123 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84"/>
-      <c r="C18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="87" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="85"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="86"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="86"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5374,123 +5374,123 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="84"/>
-      <c r="C25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="87" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="85"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="86"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="86"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5603,83 +5603,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5696,6 +5619,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -1637,7 +1637,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0. 멘토 피드백 정리
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>0. 멘토 피드백 정리 !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 1. 행성 위치값 이동 기능 구현
 2. 갤러리 이미지 클릭시 제목 출력 기능구현
 3. 텍스트 미디어쿼리 정비
@@ -1682,7 +1701,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1944,6 +1963,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2498,6 +2525,45 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,43 +2618,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,15 +2634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2912,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2934,11 +2961,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -2964,56 +2991,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="76">
         <v>45670</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3088,13 +3115,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="80"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="70"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3179,7 +3206,7 @@
       <c r="E7" s="11">
         <v>45695</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="75" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="22">
@@ -3223,7 +3250,7 @@
       <c r="E8" s="11">
         <v>45695</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>26</v>
@@ -3263,7 +3290,7 @@
       <c r="E9" s="11">
         <v>45695</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3303,7 +3330,7 @@
       <c r="E10" s="11">
         <v>45695</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3343,7 +3370,7 @@
       <c r="E11" s="11">
         <v>45695</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3383,7 +3410,7 @@
       <c r="E12" s="11">
         <v>45695</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3423,7 +3450,7 @@
       <c r="E13" s="11">
         <v>45695</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G39" si="4">IF(E13="","",E13+1-D13)</f>
         <v>26</v>
@@ -3463,7 +3490,7 @@
       <c r="E14" s="11">
         <v>45695</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3501,7 +3528,7 @@
       <c r="E15" s="11">
         <v>45695</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3539,7 +3566,7 @@
       <c r="E16" s="11">
         <v>45688</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="72" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="22">
@@ -3581,7 +3608,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3612,7 +3639,7 @@
       <c r="B18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="66" t="s">
         <v>126</v>
       </c>
       <c r="D18" s="11">
@@ -3621,7 +3648,7 @@
       <c r="E18" s="11">
         <v>45688</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G29" si="5">IF(E18="","",E18+1-D18)</f>
         <v>19</v>
@@ -3652,14 +3679,14 @@
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="11">
         <v>45670</v>
       </c>
       <c r="E19" s="11">
         <v>45688</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3690,14 +3717,14 @@
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="11">
         <v>45670</v>
       </c>
       <c r="E20" s="11">
         <v>45688</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3728,14 +3755,14 @@
       <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45688</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3766,14 +3793,14 @@
       <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45688</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3804,14 +3831,14 @@
       <c r="B23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45688</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3851,7 +3878,7 @@
       <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3891,7 +3918,7 @@
       <c r="E25" s="11">
         <v>45688</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="22">
         <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
         <v>19</v>
@@ -3931,7 +3958,7 @@
       <c r="E26" s="11">
         <v>45688</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="22">
         <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
         <v>19</v>
@@ -3962,12 +3989,12 @@
       <c r="B27" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="66" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -3993,10 +4020,10 @@
       <c r="B28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="60"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -4022,7 +4049,7 @@
       <c r="B29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="69" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="11">
@@ -4031,7 +4058,7 @@
       <c r="E29" s="11">
         <v>45693</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4062,14 +4089,14 @@
       <c r="B30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="11">
         <v>45691</v>
       </c>
       <c r="E30" s="11">
         <v>45693</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4100,14 +4127,14 @@
       <c r="B31" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="11">
         <v>45691</v>
       </c>
       <c r="E31" s="11">
         <v>45693</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4138,14 +4165,14 @@
       <c r="B32" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="11">
         <v>45691</v>
       </c>
       <c r="E32" s="11">
         <v>45693</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4176,14 +4203,14 @@
       <c r="B33" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="11">
         <v>45691</v>
       </c>
       <c r="E33" s="11">
         <v>45693</v>
       </c>
-      <c r="F33" s="60"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4214,14 +4241,14 @@
       <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="11">
         <v>45691</v>
       </c>
       <c r="E34" s="11">
         <v>45693</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4252,14 +4279,14 @@
       <c r="B35" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="11">
         <v>45691</v>
       </c>
       <c r="E35" s="11">
         <v>45693</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4442,11 +4469,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="F16:F35"/>
@@ -4456,6 +4478,11 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z39">
@@ -4513,9 +4540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M22" sqref="M22"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4538,16 +4565,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4570,126 +4597,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="84" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="88"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="89"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4867,123 +4894,123 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="84" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="88"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="89"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="89"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5103,123 +5130,123 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="84" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="88"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="89"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5374,123 +5401,123 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="84" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="89"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="89"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5603,6 +5630,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5619,83 +5723,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250123.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="132">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,34 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서브페이지 - Neptune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Saturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Uranus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Jupiter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Mars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Venus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Mercury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행성 회전 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,19 +338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mercury 와 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-01-07 (화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2025-01-08 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Earth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1251,62 +1215,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>질문
-1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">답변
-1. 이벤트 대상 설정 ,
-클릭된 박스의 이미지 읽어오기$(this).attr("src");
-2. 읽어온 내용을 서브 컨텐츠에 뿌리면 가능!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서브페이지 피드백
-1. 첫 서브 페이지 만든 다음에 다른 페이지를 따로 만들지 말고 , JS로 뿌리는 것이 좋을 듯. 뿌리는 데이터를 JSON으로 만들고, 키 값은 각 행성으로 해보면 좋을 듯 함.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">답변
 1. 위치 함수 실행
 </t>
@@ -1380,15 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 행성 무한 슬라이드 방식+드래그 사용하여 이동
-2. 클릭시 해당 행성 서브페이지로 이동(데이터 전환)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행성이동(추가구현)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
 2. Close(x) 버튼 클릭시 화면 닫기
 (추가구현) 갤러리 이미지 클릭시 해당 사진에 대한 요약내용 (제목) 하단에 호출 </t>
@@ -1401,12 +1300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. position: fixed
-2. 컨텐츠에 따라 좌,우 위치 이동
-3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1455,31 +1348,6 @@
       <t xml:space="preserve">(이월)
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1.제이슨 데이터 불러오기
--제이슨 객체 안에 있는 각 타이틀 불러오는 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 , 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브 페이지 기능 구현 마무리 후 프로젝트 발표 전까지 구현 가능한지 판단 후에 프로젝트 기간내 혹은 향후 계획에 포함하여 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통
-1. 행성 반대편에서 타이핑 애니메이션
-2. 행성에 따라 각 행성에 맞는 제이슨 데이터 호출
-3. 스크롤 위치값에 따라 타이핑 애니메이션 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1616,14 +1484,6 @@
 - html,scss,js 대문자 클래스 소문자로 변경
 - json 데이터 수정
 (줄바꿈 스트링 입력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백
-1. 갤러리 서브메뉴 닫기 버튼
-가상요소 before , after 줘서 디자인 바꾸면 더 좋을 듯 .
-2. 갤러리 서브메뉴 넘기기 버튼
-이미지 양 옆으로 화살표 버튼을 줘서 이전, 다음으로 넘어갈 수 있도록 기능 넣으면 좋을 듯.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1636,6 +1496,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>피드백
+1. 갤러리 서브메뉴 닫기 버튼
+가상요소 before , after 줘서 디자인 바꾸면 더 좋을 듯 .
+2. 갤러리 서브메뉴 넘기기 버튼
+이미지 양 옆으로 화살표 버튼을 줘서 이전, 다음으로 넘어갈 수 있도록 기능 넣으면 좋을 듯.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>질문
+1. 이미지 데이터를 읽어와서 html 태그로 찍는 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">답변
+1. 이벤트 대상 설정 ,
+클릭된 박스의 이미지 읽어오기$(this).attr("src");
+2. 읽어온 내용을 서브 컨텐츠에 뿌리면 가능!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서브페이지 피드백
+1. 첫 서브 페이지 만든 다음에 다른 페이지를 따로 만들지 말고 , JS로 뿌리는 것이 좋을 듯. 뿌리는 데이터를 JSON으로 만들고, 키 값은 각 행성으로 해보면 좋을 듯 함.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"멘토 피드백 
+1. 주제를 선정할 때 목적성을 분명히 해야함.
+&lt;페이지 리뉴얼&gt; 이라면 As-Is 와 To-be 를 구분해야함. 예를들어 As-Is의 장점과 단점을 파악해서 단점을 해결하기위해 To-be를 만들게 되었다. 이를위해 A의 요소를 ~하게 변경하였다고 말할 수 있어야 함. 그리고 To-be의 강점을 잘 나열할 수 있어야 함.
+** 고객사가 물어본다고 생각하고 이를 설정해야한다.
+기존에 있던거랑 무엇이 다르죠?
+이게 어떤 부분이 편한거죠?
+2. 그렇다면 타겟층은 누구인가?
+모두를 위해서 만든 사이트라고 한다면 나사와 다를바가 없다. 때문에 타겟층을 정해야하는데, 초등학교 중학교 학생들을 대상으로 가볍게 볼 수 있는 교육 페이지로 리뉴얼 했다고 요약해볼 수 있겠다.
+* 페이지 리뉴얼은 ""고도화""라는 용어를 씀.
+기능 아이디어 : 제이슨 파일에 더미 데이터를 넣어놓고, 회원가입 할때 생년월일을 기입해서 넣었다 치면
+초등학생용 영상 / 중학생용 영상을 구분해서 넣어보자.
+3. 사용자의 시각으로 개발을 진행해야한다.
+개발자의 시선으로 생각하면서 개발을 하게 되면 사용자 입장에서는 ""불편""해질 수 있고, 불편해지면 사용하지 않는다. 예를들어 기능이 직관적이지 않거나, 스크롤이 너무 많다거나, 너무 긴 시간동안 일정 화면을 잡아두고 있을 때 유저들은 불편감을 느끼게 된다. 그럼 사용하지 않는다. 
+어떻게 하면 사용자들이 편하고, 좋은 경험을 가질 수 있도록 구현할 수 있을지를 고민 해봐야 한다.
+고객을 끌어들일 수 있는 페이지와 기능이 수익성을 일으킨다.
+4. 우리는 웹 디자이너가 아니라 프론트엔드 개발자이다. 데이터를 가지고 특정한 프로세스를 작동시킬 수 있어야 한다. 개발자는 ""기능""을 개발하는 사람이다.
+5. 규칙을 지정해야함. 
+네이밍 규칙, 페이지명, 이니셜 규칙 등
+특히 function 명칭 , 변수명에 대한 정의를 3-4개는 꼭 정해놓도록 하자.
+6. 포트폴리오를 제시할 때 "개발"에 해당되는 영역이 무조건적으로 많아야 한다. 개발자라는 것을 잊으면 안됨.
+7. 기능 예시
+가장많이 조회한 데이터 , 가장 많이 팔린 상품, 판매수, 주문수, 좋아요 수 등등의 데이터를 이용한 기능
+DB를 사용하기가 어렵다면 json으로라도 가상 데이터를 넣어서 기능 구현진행하자.
+가장 최근에 등록된 상품을 기준으로 신상품섹션을 만드는 기능도 좋을 듯.
+지도 : 위도, 경도만 알면 되는데,
+* 솔루션 
+1. 스크롤
+- 스크롤이 너~무 많다. 스크롤이 많으면 사용자 입장에서는 귀찮다.
+- 스크롤을 없애려면 어떻게 할 수 있을까? ""카테고리화"" 시키면 된다. 지금 구분되어 있는 섹션들을 가지고 사이드바를 만들어서 특정 카테고리를 클릭하면 해당 섹션으로 이동하거나 해당 섹션의 데이터로 교체되는 기능들을 생각해볼 수 있겠다.
+- 혹은, 데이터를 이용한 무한스크롤을 구현해보는 것도 좋을 것 같다.
+2. 타이핑 애니메이션
+- 사용자가 스크롤을 내릴때 타이핑 애니메이션이 실행되고 있으므로 정보전달이 지연되어 오히려 가독성이 좋지 않다.
+3. 추가 구현할 부분
+- 로그인 , 회원가입(유효성 체크기능 필수)
+- 회원가입시에 click  , change 등 이벤트를 많이 사용해보자. 주소를 입력할 때 다중셀렉트 박스를 구현하는 것도 좋을 듯. 서울 , 강원, 경기, 충청 이렇게 4개 지역만 해봐도 충분함.
+- 회원가입시에 휴대폰 번호 : (1541,070도 포함해서)
+- (아이디, 비밀번호 찾기) : 구현 못할 부분이라면 과감하게 빼자.
+- 가능하다면 가장 조회수가 많은 행성으로 정렬하는 기능
+- 새로운 정보가 등록된 최근 등록순으로 행성을 정렬하는 기능"
+4. 일정관리는 체계적으로 잘 되고 있는것으로 보임. 포트폴리오에서 "한눈에 보기 좋게" 담으면 좋을 듯.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 멘토 피드백 진행
+2. 피드백 진행 후 팀회의 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 향후 계획 (4월 4일까지 구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. position: fixed
+2. 섹션에 따라 좌,우 위치 이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 무한 스크롤, 행성의 마지막 전 섹션이 화면의 상단에 닿았을 때, 다음 행성 호출.
+2. 이전 , 현재 , 다음 행성 총 3개의 데이터가 교체.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵메뉴(사이드바)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공통
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. 행성 반대편에서 타이핑 애니메이션
+2. 행성에 따라 각 행성에 맞는 제이슨 데이터 호출
+3. 스크롤 위치값에 따라 타이핑 애니메이션 실행 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 첫 행성(mercury)만 타이핑 애니메이션(수정)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 행성을 구분하는 대분류 메뉴, 오버시 텍스트 쉐도우. 
+2. 대분류 메뉴 클릭시 행성 데이터 호출 및 섹션이동 소분류메뉴 호출
+3.소분류 메뉴 클릭시 각 메뉴에 맞는 섹션으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피드백 정리 ,기존기능 재정의 , 추가 구현기능정의
+2. 회의록 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -1657,9 +1731,6 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-1. 행성 위치값 이동 기능 구현
-2. 갤러리 이미지 클릭시 제목 출력 기능구현
-3. 텍스트 미디어쿼리 정비
 </t>
     </r>
     <r>
@@ -1672,6 +1743,33 @@
         <charset val="129"/>
         <scheme val="major"/>
       </rPr>
+      <t>1. 행성 위치값 이동 기능 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 기능정의 변경으로 삭제
+2. 갤러리 이미지 클릭시 제목 출력 기능구현(이월)
+3. 텍스트 미디어쿼리(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
       <t>+ 애니메이션 structure 섹션 위치값 연결</t>
     </r>
     <r>
@@ -1684,10 +1782,107 @@
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
-4. 갤러리 서브메뉴 미디어 쿼리 
-5. 푸터 전에 각 행성으로 이동 기능 구현
-6. 커서에 이미지 따라다닐 수 있도록 구현</t>
-    </r>
+4. 갤러리 서브메뉴 미디어 쿼리 (이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 푸터 전에 각 행성으로 이동 기능 구현(이월, 진행중)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 기능정의 변경으로 삭제
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>커서에 이미지 따라다닐 수 있도록 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 구현 우선순위 고려하여 삭제</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 갤러리 이미지 클릭시 제목 출력 기능구현
+2. 텍스트 미디어쿼리
+3. 갤러리 서브메뉴 미디어 쿼리
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>발표자료 작성시
+타겟 , 고도화 As-is / To-be 장단점 및 To-be의 강점 구체적으로 작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1.제이슨 데이터 불러오기
+-제이슨 객체 안에 있는 각 타이틀 불러오는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1.제이슨 데이터 불러오기
+- 제이슨 객체 안에 있는 각 타이틀 불러오는 방법
+- 데이터 화면에 호출되는 과정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1896,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1972,6 +2167,48 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1993,7 +2230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2359,13 +2596,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2519,11 +2784,59 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2555,67 +2868,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2627,14 +2886,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,8 +2936,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE4E4E4"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFE4E4E4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2937,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z39"/>
+  <dimension ref="B1:Z32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2961,11 +3238,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -2980,7 +3257,7 @@
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="21" t="s">
@@ -2991,56 +3268,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="78" t="s">
+      <c r="F4" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="58">
         <v>45670</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3115,13 +3392,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="83"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3204,14 +3481,14 @@
         <v>45670</v>
       </c>
       <c r="E7" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>69</v>
+        <v>45694</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>60</v>
       </c>
       <c r="G7" s="22">
         <f>IF(E7="","",E7+1-D7)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
@@ -3239,21 +3516,21 @@
     </row>
     <row r="8" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11">
         <v>45670</v>
       </c>
       <c r="E8" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F8" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="17">
         <v>0</v>
@@ -3279,21 +3556,21 @@
     </row>
     <row r="9" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D9" s="11">
         <v>45670</v>
       </c>
       <c r="E9" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F9" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="17">
         <v>0</v>
@@ -3319,21 +3596,21 @@
     </row>
     <row r="10" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11">
         <v>45670</v>
       </c>
       <c r="E10" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F10" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F10" s="55"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="17">
         <v>0</v>
@@ -3359,21 +3636,21 @@
     </row>
     <row r="11" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11">
         <v>45670</v>
       </c>
       <c r="E11" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F11" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F11" s="55"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -3399,21 +3676,21 @@
     </row>
     <row r="12" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11">
         <v>45670</v>
       </c>
       <c r="E12" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F12" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F12" s="55"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
@@ -3448,12 +3725,12 @@
         <v>45670</v>
       </c>
       <c r="E13" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F13" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F13" s="55"/>
       <c r="G13" s="22">
-        <f t="shared" ref="G13:G39" si="4">IF(E13="","",E13+1-D13)</f>
-        <v>26</v>
+        <f t="shared" ref="G13:G32" si="4">IF(E13="","",E13+1-D13)</f>
+        <v>25</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -3479,21 +3756,21 @@
     </row>
     <row r="14" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D14" s="11">
         <v>45670</v>
       </c>
       <c r="E14" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F14" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F14" s="55"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="18">
         <v>0</v>
@@ -3526,12 +3803,12 @@
         <v>45670</v>
       </c>
       <c r="E15" s="11">
-        <v>45695</v>
-      </c>
-      <c r="F15" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F15" s="55"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
@@ -3555,26 +3832,24 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="35"/>
     </row>
-    <row r="16" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="10"/>
+    <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="89"/>
       <c r="D16" s="11">
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="E16" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>70</v>
-      </c>
+        <v>45694</v>
+      </c>
+      <c r="F16" s="56"/>
       <c r="G16" s="22">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>IF(E16="","",E16+1-D16)</f>
+        <v>14</v>
       </c>
       <c r="H16" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3595,12 +3870,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="35"/>
     </row>
-    <row r="17" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
-        <v>57</v>
+    <row r="17" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" s="11">
         <v>45670</v>
@@ -3608,13 +3883,15 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H17" s="18">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3635,26 +3912,26 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="2:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>126</v>
+    <row r="18" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D18" s="11">
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="E18" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F18" s="73"/>
+        <v>45694</v>
+      </c>
+      <c r="F18" s="55"/>
       <c r="G18" s="22">
-        <f t="shared" ref="G18:G29" si="5">IF(E18="","",E18+1-D18)</f>
-        <v>19</v>
+        <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
+        <v>14</v>
       </c>
       <c r="H18" s="18">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3675,24 +3952,26 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="67"/>
+    <row r="19" spans="2:26" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="D19" s="11">
         <v>45670</v>
       </c>
       <c r="E19" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F19" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F19" s="55"/>
       <c r="G19" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H19" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3713,24 +3992,26 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="35"/>
     </row>
-    <row r="20" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="67"/>
+    <row r="20" spans="2:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>124</v>
+      </c>
       <c r="D20" s="11">
         <v>45670</v>
       </c>
       <c r="E20" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F20" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F20" s="55"/>
       <c r="G20" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
+        <v>12</v>
       </c>
       <c r="H20" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3753,22 +4034,22 @@
     </row>
     <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="67"/>
+        <v>52</v>
+      </c>
+      <c r="C21" s="52"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F21" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F21" s="55"/>
       <c r="G21" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="H21" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3791,22 +4072,22 @@
     </row>
     <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="67"/>
+        <v>63</v>
+      </c>
+      <c r="C22" s="52"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F22" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F22" s="55"/>
       <c r="G22" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="H22" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3829,22 +4110,22 @@
     </row>
     <row r="23" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="68"/>
+        <v>64</v>
+      </c>
+      <c r="C23" s="52"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F23" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F23" s="55"/>
       <c r="G23" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="H23" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3865,26 +4146,24 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="35"/>
     </row>
-    <row r="24" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>119</v>
-      </c>
+    <row r="24" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="52"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F24" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F24" s="55"/>
       <c r="G24" s="22">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="H24" s="18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3905,26 +4184,24 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="35"/>
     </row>
-    <row r="25" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>118</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C25" s="53"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F25" s="73"/>
+        <v>45681</v>
+      </c>
+      <c r="F25" s="55"/>
       <c r="G25" s="22">
-        <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="H25" s="18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3945,12 +4222,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="35"/>
     </row>
-    <row r="26" spans="2:26" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D26" s="11">
         <v>45670</v>
@@ -3958,13 +4235,13 @@
       <c r="E26" s="11">
         <v>45688</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="22">
-        <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="H26" s="18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3985,18 +4262,27 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="35"/>
     </row>
-    <row r="27" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="18"/>
+    <row r="27" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E27" s="11">
+        <v>45688</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="22">
+        <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
+        <v>19</v>
+      </c>
+      <c r="H27" s="18">
+        <v>80</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4018,14 +4304,21 @@
     </row>
     <row r="28" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>118</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>120</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="18"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="22" t="str">
+        <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
+        <v/>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -4045,23 +4338,23 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="35"/>
     </row>
-    <row r="29" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>61</v>
-      </c>
+    <row r="29" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="11">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="E29" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F29" s="73"/>
+        <v>45698</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="22">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H29" s="18">
         <v>0</v>
@@ -4085,21 +4378,21 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="35"/>
     </row>
-    <row r="30" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="70"/>
+    <row r="30" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="11">
-        <v>45691</v>
+        <v>45670</v>
       </c>
       <c r="E30" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F30" s="73"/>
+        <v>45698</v>
+      </c>
+      <c r="F30" s="45"/>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H30" s="18">
         <v>0</v>
@@ -4123,21 +4416,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="35"/>
     </row>
-    <row r="31" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="70"/>
+    <row r="31" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="11">
-        <v>45691</v>
+        <v>45670</v>
       </c>
       <c r="E31" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F31" s="73"/>
+        <v>45698</v>
+      </c>
+      <c r="F31" s="45"/>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H31" s="18">
         <v>0</v>
@@ -4161,21 +4454,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="35"/>
     </row>
-    <row r="32" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="70"/>
+    <row r="32" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="11">
-        <v>45691</v>
+        <v>45670</v>
       </c>
       <c r="E32" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F32" s="73"/>
+        <v>45698</v>
+      </c>
+      <c r="F32" s="45"/>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H32" s="18">
         <v>0</v>
@@ -4199,304 +4492,34 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="35"/>
     </row>
-    <row r="33" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="11">
-        <v>45691</v>
-      </c>
-      <c r="E33" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="22">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="35"/>
-    </row>
-    <row r="34" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="11">
-        <v>45691</v>
-      </c>
-      <c r="E34" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="22">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="35"/>
-    </row>
-    <row r="35" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="11">
-        <v>45691</v>
-      </c>
-      <c r="E35" s="11">
-        <v>45693</v>
-      </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="22">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="35"/>
-    </row>
-    <row r="36" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
-        <v>45694</v>
-      </c>
-      <c r="E36" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="22">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="35"/>
-    </row>
-    <row r="37" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E37" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="35"/>
-    </row>
-    <row r="38" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E38" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="35"/>
-    </row>
-    <row r="39" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E39" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="35"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="F16:F35"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="I4:Z4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="C27:C28"/>
+  <mergeCells count="12">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="I4:Z4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F16"/>
+    <mergeCell ref="F17:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I5:Z39">
+  <conditionalFormatting sqref="I5:Z32">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>I$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:Z39">
+  <conditionalFormatting sqref="I7:Z32">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H39">
-    <cfRule type="dataBar" priority="112">
+  <conditionalFormatting sqref="H7:H32">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4528,7 +4551,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H7:H39</xm:sqref>
+          <xm:sqref>H7:H32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4540,9 +4563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M17" sqref="B12:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4559,22 +4582,24 @@
     <col min="12" max="12" width="50.75" customWidth="1"/>
     <col min="13" max="13" width="48.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.25" customWidth="1"/>
+    <col min="16" max="16" width="40.75" customWidth="1"/>
+    <col min="17" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4584,7 +4609,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4597,136 +4622,136 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="C4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="87" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="88"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>24</v>
@@ -4794,43 +4819,47 @@
         <v>44</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>76</v>
-      </c>
       <c r="F8" s="27" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
@@ -4848,7 +4877,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -4894,133 +4923,133 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="87" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="86"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="89"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>24</v>
@@ -5092,31 +5121,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="50" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I16" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="O16" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
@@ -5130,133 +5163,133 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84"/>
-      <c r="C18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="87" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="88"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="86"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="89"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>24</v>
@@ -5324,40 +5357,42 @@
         <v>47</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="K22" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="43" t="s">
+      <c r="L22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="43" t="s">
+      <c r="N22" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
@@ -5376,7 +5411,7 @@
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -5401,133 +5436,133 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="84"/>
-      <c r="C25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="87" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="88"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="86"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="89"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>24</v>
@@ -5595,26 +5630,28 @@
         <v>49</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F29" s="46"/>
       <c r="G29" s="27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="O29" s="92" t="s">
+        <v>129</v>
+      </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
@@ -5630,83 +5667,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5723,6 +5683,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
